--- a/covidacumulados.xlsx
+++ b/covidacumulados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guille/Desktop/Proyecto Python/Streamlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guille/Desktop/enciclopedia-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898D1D25-48EE-0A4A-93DD-F2BF57053873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A972ACB-AF2F-FC4A-92E6-8B4EC43CDAC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="13580" windowHeight="14460" xr2:uid="{B97BCBA8-CF76-C343-97E6-52A39F261647}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{B97BCBA8-CF76-C343-97E6-52A39F261647}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -457,11 +457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE32577A-6B12-0D48-B221-305E1F50E21F}">
-  <dimension ref="A1:CY204"/>
+  <dimension ref="A1:DC204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CY21" sqref="CY21"/>
+      <pane xSplit="1" topLeftCell="CX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DE18" sqref="DE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,7 +469,7 @@
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -779,8 +779,20 @@
       <c r="CY1" s="2">
         <v>43982</v>
       </c>
-    </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CZ1" s="2">
+        <v>43983</v>
+      </c>
+      <c r="DA1" s="2">
+        <v>43984</v>
+      </c>
+      <c r="DB1" s="2">
+        <v>43985</v>
+      </c>
+      <c r="DC1" s="2">
+        <v>43986</v>
+      </c>
+    </row>
+    <row r="2" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1090,8 +1102,20 @@
       <c r="CY2" s="3">
         <v>12679</v>
       </c>
-    </row>
-    <row r="3" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CZ2" s="3">
+        <v>12708</v>
+      </c>
+      <c r="DA2" s="3">
+        <v>12726</v>
+      </c>
+      <c r="DB2" s="3">
+        <v>12743</v>
+      </c>
+      <c r="DC2" s="3">
+        <v>12759</v>
+      </c>
+    </row>
+    <row r="3" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1401,8 +1425,20 @@
       <c r="CY3" s="3">
         <v>5695</v>
       </c>
-    </row>
-    <row r="4" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CZ3" s="3">
+        <v>5711</v>
+      </c>
+      <c r="DA3" s="3">
+        <v>5731</v>
+      </c>
+      <c r="DB3" s="3">
+        <v>5734</v>
+      </c>
+      <c r="DC3" s="3">
+        <v>5757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1712,8 +1748,20 @@
       <c r="CY4" s="3">
         <v>2303</v>
       </c>
-    </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CZ4" s="3">
+        <v>2314</v>
+      </c>
+      <c r="DA4" s="3">
+        <v>2316</v>
+      </c>
+      <c r="DB4" s="3">
+        <v>2316</v>
+      </c>
+      <c r="DC4" s="3">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2023,8 +2071,20 @@
       <c r="CY5" s="3">
         <v>18907</v>
       </c>
-    </row>
-    <row r="6" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CZ5" s="3">
+        <v>18925</v>
+      </c>
+      <c r="DA5" s="3">
+        <v>18956</v>
+      </c>
+      <c r="DB5" s="3">
+        <v>19009</v>
+      </c>
+      <c r="DC5" s="3">
+        <v>19042</v>
+      </c>
+    </row>
+    <row r="6" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2334,8 +2394,20 @@
       <c r="CY6" s="3">
         <v>17259</v>
       </c>
-    </row>
-    <row r="7" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CZ6" s="3">
+        <v>17310</v>
+      </c>
+      <c r="DA6" s="3">
+        <v>17355</v>
+      </c>
+      <c r="DB6" s="3">
+        <v>17393</v>
+      </c>
+      <c r="DC6" s="3">
+        <v>17431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2645,8 +2717,20 @@
       <c r="CY7" s="3">
         <v>59019</v>
       </c>
-    </row>
-    <row r="8" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CZ7" s="3">
+        <v>59035</v>
+      </c>
+      <c r="DA7" s="3">
+        <v>59112</v>
+      </c>
+      <c r="DB7" s="3">
+        <v>59163</v>
+      </c>
+      <c r="DC7" s="3">
+        <v>59182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2956,8 +3040,20 @@
       <c r="CY8" s="3">
         <v>146</v>
       </c>
-    </row>
-    <row r="9" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CZ8" s="3">
+        <v>155</v>
+      </c>
+      <c r="DA8" s="3">
+        <v>155</v>
+      </c>
+      <c r="DB8" s="3">
+        <v>163</v>
+      </c>
+      <c r="DC8" s="3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3267,8 +3363,20 @@
       <c r="CY9" s="3">
         <v>68852</v>
       </c>
-    </row>
-    <row r="10" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CZ9" s="3">
+        <v>68960</v>
+      </c>
+      <c r="DA9" s="3">
+        <v>69112</v>
+      </c>
+      <c r="DB9" s="3">
+        <v>69236</v>
+      </c>
+      <c r="DC9" s="3">
+        <v>69423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3578,8 +3686,20 @@
       <c r="CY10" s="3">
         <v>11228</v>
       </c>
-    </row>
-    <row r="11" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CZ10" s="3">
+        <v>11238</v>
+      </c>
+      <c r="DA10" s="3">
+        <v>11254</v>
+      </c>
+      <c r="DB10" s="3">
+        <v>11265</v>
+      </c>
+      <c r="DC10" s="3">
+        <v>11285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3889,8 +4009,20 @@
       <c r="CY11" s="3">
         <v>2966</v>
       </c>
-    </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CZ11" s="3">
+        <v>2971</v>
+      </c>
+      <c r="DA11" s="3">
+        <v>2974</v>
+      </c>
+      <c r="DB11" s="3">
+        <v>2973</v>
+      </c>
+      <c r="DC11" s="3">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -4200,8 +4332,20 @@
       <c r="CY12" s="3">
         <v>9129</v>
       </c>
-    </row>
-    <row r="13" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CZ12" s="3">
+        <v>9130</v>
+      </c>
+      <c r="DA12" s="3">
+        <v>9132</v>
+      </c>
+      <c r="DB12" s="3">
+        <v>9134</v>
+      </c>
+      <c r="DC12" s="3">
+        <v>9146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -4511,8 +4655,20 @@
       <c r="CY13" s="3">
         <v>2142</v>
       </c>
-    </row>
-    <row r="14" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CZ13" s="3">
+        <v>2150</v>
+      </c>
+      <c r="DA13" s="3">
+        <v>2157</v>
+      </c>
+      <c r="DB13" s="3">
+        <v>2164</v>
+      </c>
+      <c r="DC13" s="3">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -4822,8 +4978,20 @@
       <c r="CY14" s="3">
         <v>2347</v>
       </c>
-    </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CZ14" s="3">
+        <v>2351</v>
+      </c>
+      <c r="DA14" s="3">
+        <v>2357</v>
+      </c>
+      <c r="DB14" s="3">
+        <v>2361</v>
+      </c>
+      <c r="DC14" s="3">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -5133,8 +5301,20 @@
       <c r="CY15" s="3">
         <v>4051</v>
       </c>
-    </row>
-    <row r="16" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CZ15" s="3">
+        <v>4052</v>
+      </c>
+      <c r="DA15" s="3">
+        <v>4053</v>
+      </c>
+      <c r="DB15" s="3">
+        <v>4054</v>
+      </c>
+      <c r="DC15" s="3">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -5444,8 +5624,20 @@
       <c r="CY16" s="3">
         <v>121</v>
       </c>
-    </row>
-    <row r="17" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CZ16" s="3">
+        <v>122</v>
+      </c>
+      <c r="DA16" s="3">
+        <v>122</v>
+      </c>
+      <c r="DB16" s="3">
+        <v>122</v>
+      </c>
+      <c r="DC16" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -5755,8 +5947,20 @@
       <c r="CY17" s="3">
         <v>5259</v>
       </c>
-    </row>
-    <row r="18" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CZ17" s="3">
+        <v>5259</v>
+      </c>
+      <c r="DA17" s="3">
+        <v>5261</v>
+      </c>
+      <c r="DB17" s="3">
+        <v>5265</v>
+      </c>
+      <c r="DC17" s="3">
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -6066,8 +6270,20 @@
       <c r="CY18" s="3">
         <v>13511</v>
       </c>
-    </row>
-    <row r="19" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CZ18" s="3">
+        <v>13513</v>
+      </c>
+      <c r="DA18" s="3">
+        <v>13523</v>
+      </c>
+      <c r="DB18" s="3">
+        <v>13527</v>
+      </c>
+      <c r="DC18" s="3">
+        <v>13529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -6377,8 +6593,20 @@
       <c r="CY19" s="3">
         <v>2425</v>
       </c>
-    </row>
-    <row r="20" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CZ19" s="3">
+        <v>2425</v>
+      </c>
+      <c r="DA19" s="3">
+        <v>2425</v>
+      </c>
+      <c r="DB19" s="3">
+        <v>2425</v>
+      </c>
+      <c r="DC19" s="3">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -6688,20 +6916,32 @@
       <c r="CY20" s="3">
         <v>1599</v>
       </c>
-    </row>
-    <row r="21" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CZ20" s="3">
+        <v>1603</v>
+      </c>
+      <c r="DA20" s="3">
+        <v>1605</v>
+      </c>
+      <c r="DB20" s="3">
+        <v>1613</v>
+      </c>
+      <c r="DC20" s="3">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="F24" s="3"/>
@@ -6802,35 +7042,35 @@
       <c r="CW24" s="3"/>
       <c r="CX24" s="3"/>
     </row>
-    <row r="25" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
